--- a/src/test/test_data/users_data.xlsx
+++ b/src/test/test_data/users_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPAM\Selenium\SeleniumHomeWork\TestAutomationLab8Selenium\src\test\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\EPAM\Selenium\SeleniumHomeWork\TA_Lab_8\src\test\test_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>vfemyaktest</t>
   </si>
@@ -36,12 +36,6 @@
   </si>
   <si>
     <t>test1234test1</t>
-  </si>
-  <si>
-    <t>vfemyaktest2</t>
-  </si>
-  <si>
-    <t>test1234test2</t>
   </si>
 </sst>
 </file>
@@ -366,7 +360,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B3"/>
+      <selection activeCell="B3" sqref="A3:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -387,13 +381,9 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
